--- a/biology/Médecine/Posturologie/Posturologie.xlsx
+++ b/biology/Médecine/Posturologie/Posturologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La posturologie est une méthode non conventionnelle d'étude de la posture, acte moteur automatique et inconscient qui permet :
 d'adopter une position érigée ;
 de stabiliser cette position en statique ou en dynamique ;
 d'élaborer la connaissance spatiale du soi par rapport à son environnement.
-Elle est le fruit de la mise en jeu d'un système sensorimoteur multimodal complexe[1].
+Elle est le fruit de la mise en jeu d'un système sensorimoteur multimodal complexe.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1950, Baron montre que de légères modifications proprioceptives entraînent des adaptations posturales et locomotrices majeures ; ces dernières générant un cortège de pathologies sont traitées par des stimulations posturales au niveau des organes sensoriels.
-À la suite des travaux sur les réactions d’équilibration, Gagey développe la notion de Système postural fin (SPF)[2],[3] aujourd'hui appelé Système postural d'aplomb, organise l’examen clinique postural et crée le mot posturologie[réf. nécessaire].
+À la suite des travaux sur les réactions d’équilibration, Gagey développe la notion de Système postural fin (SPF), aujourd'hui appelé Système postural d'aplomb, organise l’examen clinique postural et crée le mot posturologie[réf. nécessaire].
 Da Cunha décrit en 1979, le syndrome de déficience postural qui élargit le syndrome postcommotionnel en y incluant les troubles de l’axe corporel.
 Au début des années 1980, plusieurs ostéopathes participent au développement de la posturologie et apportent de nombreux tests qui font référence:
 Test des rotateurs; Bernard Autet.
@@ -552,9 +566,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, l'INSERM a évalué l'efficacité et la dangerosité de la posturologie en ce qui concerne le traitement de la dyslexie et les auteurs concluent que « les données scientifiques disponibles ne permettent pas de conclure à l’efficacité du traitement proprioceptif dans la prise en charge de la dyslexie »[4]. Ils constatent une aggravation des troubles dans 10% des cas mais soulignent que cela peut être dû à l'évolution naturelle de la maladie. Aussi, il ne préconisent pas de contre-indiquer le recours à cette prise en charge si elle est souhaitée[4]. Le Dr Quercia a conduit des études sur le « syndrome de déficience postural » (SDP) dans la dyslexie et les a publié dans diverses revues scientifiques, sans toutefois parvenir à prouver clairement que le SPD et lié à la dyslexie ni que la posturologie permette d'y remédier[5],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, l'INSERM a évalué l'efficacité et la dangerosité de la posturologie en ce qui concerne le traitement de la dyslexie et les auteurs concluent que « les données scientifiques disponibles ne permettent pas de conclure à l’efficacité du traitement proprioceptif dans la prise en charge de la dyslexie ». Ils constatent une aggravation des troubles dans 10% des cas mais soulignent que cela peut être dû à l'évolution naturelle de la maladie. Aussi, il ne préconisent pas de contre-indiquer le recours à cette prise en charge si elle est souhaitée. Le Dr Quercia a conduit des études sur le « syndrome de déficience postural » (SDP) dans la dyslexie et les a publié dans diverses revues scientifiques, sans toutefois parvenir à prouver clairement que le SPD et lié à la dyslexie ni que la posturologie permette d'y remédier,.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le « système postural » est un système multisensoriel et multimodal associant en système différentes informations codant la spatialité, dites entrées posturales, dont le but est le maintien de la station érigée et sa stabilité dans l’espace.
 Le système tonique postural est composé des différents éléments suivants :
